--- a/Extracted Data/VRU Headform - Prediction tables/2024_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Prediction tables/2024_cars_combined.xlsx
@@ -7,20 +7,20 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Ford Tourneo Custom" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ZEEKR 001" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="MAXUS MIFA 7" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="VW Passat" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Škoda Kodiaq" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="BMW X2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Renault Rafale HEV" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Mercedes-Benz E-Class" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Suzuki Swift" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Dacia Duster" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Renault Espace" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Toyota C-HR" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Honda CR-V" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="NIO EL6" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Honda CR-V" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NIO EL6" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Toyota C-HR" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Ford Tourneo Custom" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="MAXUS MIFA 7" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ZEEKR 001" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="BMW X2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Dacia Duster" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Mercedes-Benz E-Class" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Renault Espace" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Renault Rafale HEV" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Škoda Kodiaq" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Suzuki Swift" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="VW Passat" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08264462809917356</v>
+        <v>0.07725321888412018</v>
       </c>
     </row>
     <row r="3">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1322314049586777</v>
+        <v>0.2188841201716738</v>
       </c>
     </row>
     <row r="4">
@@ -511,13 +511,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>65.25</v>
+        <v>75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.359504132231405</v>
+        <v>0.4291845493562232</v>
       </c>
     </row>
     <row r="5">
@@ -528,13 +528,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1900826446280992</v>
+        <v>0.1158798283261803</v>
       </c>
     </row>
     <row r="6">
@@ -551,7 +551,7 @@
         <v>3.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06198347107438017</v>
+        <v>0.06437768240343347</v>
       </c>
     </row>
     <row r="7">
@@ -562,13 +562,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08264462809917356</v>
+        <v>0.05150214592274678</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05785123966942149</v>
+        <v>0.04291845493562232</v>
       </c>
     </row>
     <row r="9">
@@ -596,11 +596,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.03305785123966942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D10" t="n">
-        <v>144</v>
+        <v>161.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -666,7 +666,7 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D Green</t>
+          <t>Default green</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1981981981981982</v>
+        <v>0.1904761904761905</v>
       </c>
     </row>
     <row r="4">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="D4" t="n">
-        <v>67.5</v>
+        <v>32.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4054054054054054</v>
+        <v>0.2559523809523809</v>
       </c>
     </row>
     <row r="5">
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D5" t="n">
-        <v>17.5</v>
+        <v>26</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1576576576576577</v>
+        <v>0.3095238095238095</v>
       </c>
     </row>
     <row r="6">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07207207207207207</v>
+        <v>0.1011904761904762</v>
       </c>
     </row>
     <row r="7">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1216216216216216</v>
+        <v>0.1071428571428571</v>
       </c>
     </row>
     <row r="8">
@@ -772,13 +772,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04504504504504504</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="9">
@@ -804,13 +804,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="D10" t="n">
-        <v>133</v>
+        <v>94.5</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2678571428571428</v>
+        <v>0.1594827586206897</v>
       </c>
     </row>
     <row r="4">
@@ -1090,13 +1090,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="D4" t="n">
-        <v>72</v>
+        <v>108.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="5">
@@ -1113,7 +1113,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08928571428571429</v>
+        <v>0.08620689655172414</v>
       </c>
     </row>
     <row r="6">
@@ -1124,13 +1124,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09821428571428571</v>
+        <v>0.04310344827586207</v>
       </c>
     </row>
     <row r="7">
@@ -1141,13 +1141,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1160714285714286</v>
+        <v>0.03448275862068965</v>
       </c>
     </row>
     <row r="8">
@@ -1158,13 +1158,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.05172413793103448</v>
       </c>
     </row>
     <row r="9">
@@ -1190,10 +1190,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D10" t="n">
-        <v>147.5</v>
+        <v>158.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07725321888412018</v>
+        <v>0.06018518518518518</v>
       </c>
     </row>
     <row r="3">
@@ -1266,13 +1266,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2188841201716738</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="4">
@@ -1283,13 +1283,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="D4" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4291845493562232</v>
+        <v>0.3148148148148148</v>
       </c>
     </row>
     <row r="5">
@@ -1300,13 +1300,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1158798283261803</v>
+        <v>0.1527777777777778</v>
       </c>
     </row>
     <row r="6">
@@ -1317,13 +1317,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>3.75</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06437768240343347</v>
+        <v>0.01851851851851852</v>
       </c>
     </row>
     <row r="7">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05150214592274678</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04291845493562232</v>
+        <v>0.09259259259259259</v>
       </c>
     </row>
     <row r="9">
@@ -1383,10 +1383,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="D10" t="n">
-        <v>161.25</v>
+        <v>141.5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3875968992248062</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="4">
@@ -1476,13 +1476,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="D4" t="n">
-        <v>53.25</v>
+        <v>75.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2751937984496124</v>
+        <v>0.4353448275862069</v>
       </c>
     </row>
     <row r="5">
@@ -1493,13 +1493,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D5" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1201550387596899</v>
+        <v>0.1896551724137931</v>
       </c>
     </row>
     <row r="6">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05426356589147287</v>
+        <v>0.08620689655172414</v>
       </c>
     </row>
     <row r="7">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.124031007751938</v>
+        <v>0.1120689655172414</v>
       </c>
     </row>
     <row r="8">
@@ -1544,13 +1544,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03875968992248062</v>
+        <v>0.05172413793103448</v>
       </c>
     </row>
     <row r="9">
@@ -1576,10 +1576,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="D10" t="n">
-        <v>172.25</v>
+        <v>131.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1635,13 +1635,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05952380952380952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1652,13 +1652,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.3875968992248062</v>
       </c>
     </row>
     <row r="4">
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D4" t="n">
-        <v>37.5</v>
+        <v>53.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1984126984126984</v>
+        <v>0.2751937984496124</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1692,7 @@
         <v>15.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.123015873015873</v>
+        <v>0.1201550387596899</v>
       </c>
     </row>
     <row r="6">
@@ -1703,13 +1703,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1349206349206349</v>
+        <v>0.05426356589147287</v>
       </c>
     </row>
     <row r="7">
@@ -1720,13 +1720,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.124031007751938</v>
       </c>
     </row>
     <row r="8">
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03968253968253968</v>
+        <v>0.03875968992248062</v>
       </c>
     </row>
     <row r="9">
@@ -1769,13 +1769,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D10" t="n">
-        <v>146.5</v>
+        <v>172.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1845,13 +1845,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2304347826086957</v>
+        <v>0.2678571428571428</v>
       </c>
     </row>
     <row r="4">
@@ -1862,13 +1862,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D4" t="n">
-        <v>81.75</v>
+        <v>72</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4739130434782609</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="5">
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0782608695652174</v>
+        <v>0.08928571428571429</v>
       </c>
     </row>
     <row r="6">
@@ -1902,7 +1902,7 @@
         <v>5.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09565217391304348</v>
+        <v>0.09821428571428571</v>
       </c>
     </row>
     <row r="7">
@@ -1913,13 +1913,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06086956521739131</v>
+        <v>0.1160714285714286</v>
       </c>
     </row>
     <row r="8">
@@ -1930,13 +1930,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06086956521739131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1962,13 +1962,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D10" t="n">
-        <v>149.25</v>
+        <v>147.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.08264462809917356</v>
       </c>
     </row>
     <row r="3">
@@ -2038,13 +2038,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>0.125</v>
+        <v>0.1322314049586777</v>
       </c>
     </row>
     <row r="4">
@@ -2055,13 +2055,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D4" t="n">
-        <v>75.75</v>
+        <v>65.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4353448275862069</v>
+        <v>0.359504132231405</v>
       </c>
     </row>
     <row r="5">
@@ -2072,13 +2072,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1896551724137931</v>
+        <v>0.1900826446280992</v>
       </c>
     </row>
     <row r="6">
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08620689655172414</v>
+        <v>0.06198347107438017</v>
       </c>
     </row>
     <row r="7">
@@ -2106,13 +2106,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1120689655172414</v>
+        <v>0.08264462809917356</v>
       </c>
     </row>
     <row r="8">
@@ -2123,13 +2123,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05172413793103448</v>
+        <v>0.05785123966942149</v>
       </c>
     </row>
     <row r="9">
@@ -2140,11 +2140,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.03305785123966942</v>
       </c>
     </row>
     <row r="10">
@@ -2155,10 +2155,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="D10" t="n">
-        <v>131.75</v>
+        <v>144</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2231,13 +2231,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D3" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1594827586206897</v>
+        <v>0.2304347826086957</v>
       </c>
     </row>
     <row r="4">
@@ -2248,13 +2248,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="D4" t="n">
-        <v>108.75</v>
+        <v>81.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.625</v>
+        <v>0.4739130434782609</v>
       </c>
     </row>
     <row r="5">
@@ -2265,13 +2265,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08620689655172414</v>
+        <v>0.0782608695652174</v>
       </c>
     </row>
     <row r="6">
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04310344827586207</v>
+        <v>0.09565217391304348</v>
       </c>
     </row>
     <row r="7">
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.06086956521739131</v>
       </c>
     </row>
     <row r="8">
@@ -2316,13 +2316,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05172413793103448</v>
+        <v>0.06086956521739131</v>
       </c>
     </row>
     <row r="9">
@@ -2348,13 +2348,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D10" t="n">
-        <v>158.25</v>
+        <v>149.25</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2403,17 +2403,17 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Default green</t>
+          <t>D Green</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.05952380952380952</v>
       </c>
     </row>
     <row r="3">
@@ -2424,13 +2424,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D3" t="n">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5581395348837209</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="4">
@@ -2441,13 +2441,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>26.25</v>
+        <v>37.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2034883720930233</v>
+        <v>0.1984126984126984</v>
       </c>
     </row>
     <row r="5">
@@ -2458,13 +2458,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1162790697674419</v>
+        <v>0.123015873015873</v>
       </c>
     </row>
     <row r="6">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04651162790697674</v>
+        <v>0.1349206349206349</v>
       </c>
     </row>
     <row r="7">
@@ -2492,13 +2492,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05232558139534884</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -2509,13 +2509,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02325581395348837</v>
+        <v>0.03968253968253968</v>
       </c>
     </row>
     <row r="9">
@@ -2541,13 +2541,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>172</v>
+        <v>252</v>
       </c>
       <c r="D10" t="n">
-        <v>134.25</v>
+        <v>146.5</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2617,13 +2617,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="D3" t="n">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.5581395348837209</v>
       </c>
     </row>
     <row r="4">
@@ -2634,13 +2634,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>32.25</v>
+        <v>26.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2559523809523809</v>
+        <v>0.2034883720930233</v>
       </c>
     </row>
     <row r="5">
@@ -2651,13 +2651,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3095238095238095</v>
+        <v>0.1162790697674419</v>
       </c>
     </row>
     <row r="6">
@@ -2668,13 +2668,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>4.25</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1011904761904762</v>
+        <v>0.04651162790697674</v>
       </c>
     </row>
     <row r="7">
@@ -2685,13 +2685,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.05232558139534884</v>
       </c>
     </row>
     <row r="8">
@@ -2702,13 +2702,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.02325581395348837</v>
       </c>
     </row>
     <row r="9">
@@ -2734,13 +2734,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D10" t="n">
-        <v>94.5</v>
+        <v>134.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2810,13 +2810,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="D3" t="n">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="E3" t="n">
-        <v>0.608</v>
+        <v>0.1981981981981982</v>
       </c>
     </row>
     <row r="4">
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="D4" t="n">
-        <v>32.25</v>
+        <v>67.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.172</v>
+        <v>0.4054054054054054</v>
       </c>
     </row>
     <row r="5">
@@ -2844,13 +2844,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>17.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.064</v>
+        <v>0.1576576576576577</v>
       </c>
     </row>
     <row r="6">
@@ -2861,13 +2861,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04</v>
+        <v>0.07207207207207207</v>
       </c>
     </row>
     <row r="7">
@@ -2878,13 +2878,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.1216216216216216</v>
       </c>
     </row>
     <row r="8">
@@ -2895,13 +2895,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.032</v>
+        <v>0.04504504504504504</v>
       </c>
     </row>
     <row r="9">
@@ -2912,11 +2912,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2927,10 +2927,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="D10" t="n">
-        <v>194.75</v>
+        <v>133</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2986,13 +2986,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06018518518518518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3003,13 +3003,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="D3" t="n">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.608</v>
       </c>
     </row>
     <row r="4">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="D4" t="n">
-        <v>51</v>
+        <v>32.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3148148148148148</v>
+        <v>0.172</v>
       </c>
     </row>
     <row r="5">
@@ -3037,13 +3037,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>16.5</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1527777777777778</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="6">
@@ -3054,13 +3054,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3088,13 +3088,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="9">
@@ -3105,11 +3105,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="10">
@@ -3120,10 +3120,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="D10" t="n">
-        <v>141.5</v>
+        <v>194.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>

--- a/Extracted Data/VRU Headform - Prediction tables/2024_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Prediction tables/2024_cars_combined.xlsx
@@ -7,20 +7,20 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Honda CR-V" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NIO EL6" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Toyota C-HR" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Ford Tourneo Custom" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="MAXUS MIFA 7" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZEEKR 001" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="BMW X2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Dacia Duster" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Mercedes-Benz E-Class" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Renault Espace" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Renault Rafale HEV" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Škoda Kodiaq" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Suzuki Swift" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="VW Passat" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Ford Tourneo Custom" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ZEEKR 001" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="MAXUS MIFA 7" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="VW Passat" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Škoda Kodiaq" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="BMW X2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Renault Rafale HEV" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Mercedes-Benz E-Class" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Suzuki Swift" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Dacia Duster" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Renault Espace" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Toyota C-HR" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Honda CR-V" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="NIO EL6" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07725321888412018</v>
+        <v>0.08264462809917356</v>
       </c>
     </row>
     <row r="3">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2188841201716738</v>
+        <v>0.1322314049586777</v>
       </c>
     </row>
     <row r="4">
@@ -511,13 +511,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D4" t="n">
-        <v>75</v>
+        <v>65.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4291845493562232</v>
+        <v>0.359504132231405</v>
       </c>
     </row>
     <row r="5">
@@ -528,13 +528,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D5" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1158798283261803</v>
+        <v>0.1900826446280992</v>
       </c>
     </row>
     <row r="6">
@@ -551,7 +551,7 @@
         <v>3.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06437768240343347</v>
+        <v>0.06198347107438017</v>
       </c>
     </row>
     <row r="7">
@@ -562,13 +562,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05150214592274678</v>
+        <v>0.08264462809917356</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04291845493562232</v>
+        <v>0.05785123966942149</v>
       </c>
     </row>
     <row r="9">
@@ -596,11 +596,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.03305785123966942</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="D10" t="n">
-        <v>161.25</v>
+        <v>144</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -666,7 +666,7 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Default green</t>
+          <t>D Green</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D3" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.1981981981981982</v>
       </c>
     </row>
     <row r="4">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="D4" t="n">
-        <v>32.25</v>
+        <v>67.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2559523809523809</v>
+        <v>0.4054054054054054</v>
       </c>
     </row>
     <row r="5">
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3095238095238095</v>
+        <v>0.1576576576576577</v>
       </c>
     </row>
     <row r="6">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1011904761904762</v>
+        <v>0.07207207207207207</v>
       </c>
     </row>
     <row r="7">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.1216216216216216</v>
       </c>
     </row>
     <row r="8">
@@ -772,13 +772,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.04504504504504504</v>
       </c>
     </row>
     <row r="9">
@@ -804,13 +804,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="D10" t="n">
-        <v>94.5</v>
+        <v>133</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1594827586206897</v>
+        <v>0.2678571428571428</v>
       </c>
     </row>
     <row r="4">
@@ -1090,13 +1090,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="D4" t="n">
-        <v>108.75</v>
+        <v>72</v>
       </c>
       <c r="E4" t="n">
-        <v>0.625</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="5">
@@ -1113,7 +1113,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08620689655172414</v>
+        <v>0.08928571428571429</v>
       </c>
     </row>
     <row r="6">
@@ -1124,13 +1124,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04310344827586207</v>
+        <v>0.09821428571428571</v>
       </c>
     </row>
     <row r="7">
@@ -1141,13 +1141,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.1160714285714286</v>
       </c>
     </row>
     <row r="8">
@@ -1158,13 +1158,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05172413793103448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1190,10 +1190,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D10" t="n">
-        <v>158.25</v>
+        <v>147.5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06018518518518518</v>
+        <v>0.07725321888412018</v>
       </c>
     </row>
     <row r="3">
@@ -1266,13 +1266,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.2188841201716738</v>
       </c>
     </row>
     <row r="4">
@@ -1283,13 +1283,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3148148148148148</v>
+        <v>0.4291845493562232</v>
       </c>
     </row>
     <row r="5">
@@ -1300,13 +1300,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1527777777777778</v>
+        <v>0.1158798283261803</v>
       </c>
     </row>
     <row r="6">
@@ -1317,13 +1317,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>3.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.06437768240343347</v>
       </c>
     </row>
     <row r="7">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.05150214592274678</v>
       </c>
     </row>
     <row r="8">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.04291845493562232</v>
       </c>
     </row>
     <row r="9">
@@ -1383,10 +1383,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="D10" t="n">
-        <v>141.5</v>
+        <v>161.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>0.125</v>
+        <v>0.3875968992248062</v>
       </c>
     </row>
     <row r="4">
@@ -1476,13 +1476,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D4" t="n">
-        <v>75.75</v>
+        <v>53.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4353448275862069</v>
+        <v>0.2751937984496124</v>
       </c>
     </row>
     <row r="5">
@@ -1493,13 +1493,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1896551724137931</v>
+        <v>0.1201550387596899</v>
       </c>
     </row>
     <row r="6">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08620689655172414</v>
+        <v>0.05426356589147287</v>
       </c>
     </row>
     <row r="7">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1120689655172414</v>
+        <v>0.124031007751938</v>
       </c>
     </row>
     <row r="8">
@@ -1544,13 +1544,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05172413793103448</v>
+        <v>0.03875968992248062</v>
       </c>
     </row>
     <row r="9">
@@ -1576,10 +1576,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="D10" t="n">
-        <v>131.75</v>
+        <v>172.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1635,13 +1635,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.05952380952380952</v>
       </c>
     </row>
     <row r="3">
@@ -1652,13 +1652,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3875968992248062</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="4">
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>53.25</v>
+        <v>37.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2751937984496124</v>
+        <v>0.1984126984126984</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1692,7 @@
         <v>15.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1201550387596899</v>
+        <v>0.123015873015873</v>
       </c>
     </row>
     <row r="6">
@@ -1703,13 +1703,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05426356589147287</v>
+        <v>0.1349206349206349</v>
       </c>
     </row>
     <row r="7">
@@ -1720,13 +1720,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.124031007751938</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03875968992248062</v>
+        <v>0.03968253968253968</v>
       </c>
     </row>
     <row r="9">
@@ -1769,13 +1769,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D10" t="n">
-        <v>172.25</v>
+        <v>146.5</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1845,13 +1845,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D3" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2678571428571428</v>
+        <v>0.2304347826086957</v>
       </c>
     </row>
     <row r="4">
@@ -1862,13 +1862,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D4" t="n">
-        <v>72</v>
+        <v>81.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.4739130434782609</v>
       </c>
     </row>
     <row r="5">
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08928571428571429</v>
+        <v>0.0782608695652174</v>
       </c>
     </row>
     <row r="6">
@@ -1902,7 +1902,7 @@
         <v>5.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09821428571428571</v>
+        <v>0.09565217391304348</v>
       </c>
     </row>
     <row r="7">
@@ -1913,13 +1913,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1160714285714286</v>
+        <v>0.06086956521739131</v>
       </c>
     </row>
     <row r="8">
@@ -1930,13 +1930,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.06086956521739131</v>
       </c>
     </row>
     <row r="9">
@@ -1962,13 +1962,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D10" t="n">
-        <v>147.5</v>
+        <v>149.25</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08264462809917356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2038,13 +2038,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1322314049586777</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="4">
@@ -2055,13 +2055,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D4" t="n">
-        <v>65.25</v>
+        <v>75.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.359504132231405</v>
+        <v>0.4353448275862069</v>
       </c>
     </row>
     <row r="5">
@@ -2072,13 +2072,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1900826446280992</v>
+        <v>0.1896551724137931</v>
       </c>
     </row>
     <row r="6">
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06198347107438017</v>
+        <v>0.08620689655172414</v>
       </c>
     </row>
     <row r="7">
@@ -2106,13 +2106,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08264462809917356</v>
+        <v>0.1120689655172414</v>
       </c>
     </row>
     <row r="8">
@@ -2123,13 +2123,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05785123966942149</v>
+        <v>0.05172413793103448</v>
       </c>
     </row>
     <row r="9">
@@ -2140,11 +2140,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.03305785123966942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2155,10 +2155,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D10" t="n">
-        <v>144</v>
+        <v>131.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2231,13 +2231,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2304347826086957</v>
+        <v>0.1594827586206897</v>
       </c>
     </row>
     <row r="4">
@@ -2248,13 +2248,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="D4" t="n">
-        <v>81.75</v>
+        <v>108.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4739130434782609</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="5">
@@ -2265,13 +2265,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0782608695652174</v>
+        <v>0.08620689655172414</v>
       </c>
     </row>
     <row r="6">
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09565217391304348</v>
+        <v>0.04310344827586207</v>
       </c>
     </row>
     <row r="7">
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06086956521739131</v>
+        <v>0.03448275862068965</v>
       </c>
     </row>
     <row r="8">
@@ -2316,13 +2316,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06086956521739131</v>
+        <v>0.05172413793103448</v>
       </c>
     </row>
     <row r="9">
@@ -2348,13 +2348,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D10" t="n">
-        <v>149.25</v>
+        <v>158.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2403,17 +2403,17 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D Green</t>
+          <t>Default green</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05952380952380952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2424,13 +2424,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D3" t="n">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.5581395348837209</v>
       </c>
     </row>
     <row r="4">
@@ -2441,13 +2441,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>37.5</v>
+        <v>26.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1984126984126984</v>
+        <v>0.2034883720930233</v>
       </c>
     </row>
     <row r="5">
@@ -2458,13 +2458,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>15.5</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>0.123015873015873</v>
+        <v>0.1162790697674419</v>
       </c>
     </row>
     <row r="6">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1349206349206349</v>
+        <v>0.04651162790697674</v>
       </c>
     </row>
     <row r="7">
@@ -2492,13 +2492,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.05232558139534884</v>
       </c>
     </row>
     <row r="8">
@@ -2509,13 +2509,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03968253968253968</v>
+        <v>0.02325581395348837</v>
       </c>
     </row>
     <row r="9">
@@ -2541,13 +2541,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>252</v>
+        <v>172</v>
       </c>
       <c r="D10" t="n">
-        <v>146.5</v>
+        <v>134.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2617,13 +2617,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5581395348837209</v>
+        <v>0.1904761904761905</v>
       </c>
     </row>
     <row r="4">
@@ -2634,13 +2634,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D4" t="n">
-        <v>26.25</v>
+        <v>32.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2034883720930233</v>
+        <v>0.2559523809523809</v>
       </c>
     </row>
     <row r="5">
@@ -2651,13 +2651,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1162790697674419</v>
+        <v>0.3095238095238095</v>
       </c>
     </row>
     <row r="6">
@@ -2668,13 +2668,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>4.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04651162790697674</v>
+        <v>0.1011904761904762</v>
       </c>
     </row>
     <row r="7">
@@ -2685,13 +2685,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05232558139534884</v>
+        <v>0.1071428571428571</v>
       </c>
     </row>
     <row r="8">
@@ -2702,13 +2702,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02325581395348837</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="9">
@@ -2734,13 +2734,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D10" t="n">
-        <v>134.25</v>
+        <v>94.5</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2810,13 +2810,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="D3" t="n">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1981981981981982</v>
+        <v>0.608</v>
       </c>
     </row>
     <row r="4">
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="D4" t="n">
-        <v>67.5</v>
+        <v>32.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4054054054054054</v>
+        <v>0.172</v>
       </c>
     </row>
     <row r="5">
@@ -2844,13 +2844,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>17.5</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1576576576576577</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="6">
@@ -2861,13 +2861,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07207207207207207</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7">
@@ -2878,13 +2878,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1216216216216216</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -2895,13 +2895,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04504504504504504</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="9">
@@ -2912,11 +2912,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="10">
@@ -2927,10 +2927,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D10" t="n">
-        <v>133</v>
+        <v>194.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2986,13 +2986,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.06018518518518518</v>
       </c>
     </row>
     <row r="3">
@@ -3003,13 +3003,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="E3" t="n">
-        <v>0.608</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="4">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="D4" t="n">
-        <v>32.25</v>
+        <v>51</v>
       </c>
       <c r="E4" t="n">
-        <v>0.172</v>
+        <v>0.3148148148148148</v>
       </c>
     </row>
     <row r="5">
@@ -3037,13 +3037,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>16.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.064</v>
+        <v>0.1527777777777778</v>
       </c>
     </row>
     <row r="6">
@@ -3054,13 +3054,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04</v>
+        <v>0.01851851851851852</v>
       </c>
     </row>
     <row r="7">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -3088,13 +3088,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.032</v>
+        <v>0.09259259259259259</v>
       </c>
     </row>
     <row r="9">
@@ -3105,11 +3105,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -3120,10 +3120,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="D10" t="n">
-        <v>194.75</v>
+        <v>141.5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>

--- a/Extracted Data/VRU Headform - Prediction tables/2024_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Prediction tables/2024_cars_combined.xlsx
@@ -7,10 +7,20 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="zeekr 001" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="maxus mifa 7" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="bmw x2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="NIO EL6" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Ford Tourneo Custom" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ZEEKR 001" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="MAXUS MIFA 7" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="VW Passat" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Škoda Kodiaq" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="BMW X2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Renault Rafale HEV" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Mercedes-Benz E-Class" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Suzuki Swift" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Dacia Duster" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Renault Espace" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Toyota C-HR" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Honda CR-V" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="NIO EL6" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -435,6 +445,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -467,13 +484,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05952380952380952</v>
+        <v>0.08264462809917356</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +501,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.1322314049586777</v>
       </c>
     </row>
     <row r="4">
@@ -501,13 +518,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="D4" t="n">
-        <v>37.5</v>
+        <v>65.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1984126984126984</v>
+        <v>0.359504132231405</v>
       </c>
     </row>
     <row r="5">
@@ -518,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D5" t="n">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>0.123015873015873</v>
+        <v>0.1900826446280992</v>
       </c>
     </row>
     <row r="6">
@@ -535,13 +552,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>8.5</v>
+        <v>3.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1349206349206349</v>
+        <v>0.06198347107438017</v>
       </c>
     </row>
     <row r="7">
@@ -552,13 +569,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.08264462809917356</v>
       </c>
     </row>
     <row r="8">
@@ -569,13 +586,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03968253968253968</v>
+        <v>0.05785123966942149</v>
       </c>
     </row>
     <row r="9">
@@ -586,11 +603,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.03305785123966942</v>
       </c>
     </row>
     <row r="10">
@@ -601,13 +618,1013 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D10" t="n">
-        <v>146.5</v>
+        <v>144</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>44</v>
+      </c>
+      <c r="D3" t="n">
+        <v>44</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1981981981981982</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>90</v>
+      </c>
+      <c r="D4" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4054054054054054</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1576576576576577</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.07207207207207207</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>27</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1216216216216216</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.04504504504504504</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>222</v>
+      </c>
+      <c r="D10" t="n">
+        <v>133</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>43</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.25</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2559523809523809</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>52</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3095238095238095</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1011904761904762</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1071428571428571</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.03571428571428571</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>168</v>
+      </c>
+      <c r="D10" t="n">
+        <v>94.5</v>
       </c>
       <c r="E10" t="n">
         <v>0.9999999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D3" t="n">
+        <v>60</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2678571428571428</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>96</v>
+      </c>
+      <c r="D4" t="n">
+        <v>72</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.08928571428571429</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.09821428571428571</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>26</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1160714285714286</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>224</v>
+      </c>
+      <c r="D10" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.07725321888412018</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>51</v>
+      </c>
+      <c r="D3" t="n">
+        <v>51</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2188841201716738</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>75</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4291845493562232</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1158798283261803</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.06437768240343347</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.05150214592274678</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.04291845493562232</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>233</v>
+      </c>
+      <c r="D10" t="n">
+        <v>161.25</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3875968992248062</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D4" t="n">
+        <v>53.25</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2751937984496124</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1201550387596899</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.05426356589147287</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>32</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.124031007751938</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.03875968992248062</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>258</v>
+      </c>
+      <c r="D10" t="n">
+        <v>172.25</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -628,6 +1645,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -660,13 +1684,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.05952380952380952</v>
       </c>
     </row>
     <row r="3">
@@ -677,13 +1701,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D3" t="n">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2304347826086957</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="4">
@@ -694,13 +1718,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>81.75</v>
+        <v>37.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4739130434782609</v>
+        <v>0.1984126984126984</v>
       </c>
     </row>
     <row r="5">
@@ -711,13 +1735,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>15.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0782608695652174</v>
+        <v>0.123015873015873</v>
       </c>
     </row>
     <row r="6">
@@ -728,13 +1752,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09565217391304348</v>
+        <v>0.1349206349206349</v>
       </c>
     </row>
     <row r="7">
@@ -745,13 +1769,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06086956521739131</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -762,13 +1786,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06086956521739131</v>
+        <v>0.03968253968253968</v>
       </c>
     </row>
     <row r="9">
@@ -794,10 +1818,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="D10" t="n">
-        <v>149.25</v>
+        <v>146.5</v>
       </c>
       <c r="E10" t="n">
         <v>0.9999999999999999</v>
@@ -821,6 +1845,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -849,7 +1880,7 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Default green</t>
+          <t>D Green</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -870,13 +1901,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="D3" t="n">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5581395348837209</v>
+        <v>0.2304347826086957</v>
       </c>
     </row>
     <row r="4">
@@ -887,13 +1918,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="D4" t="n">
-        <v>26.25</v>
+        <v>81.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2034883720930233</v>
+        <v>0.4739130434782609</v>
       </c>
     </row>
     <row r="5">
@@ -904,13 +1935,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1162790697674419</v>
+        <v>0.0782608695652174</v>
       </c>
     </row>
     <row r="6">
@@ -921,13 +1952,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04651162790697674</v>
+        <v>0.09565217391304348</v>
       </c>
     </row>
     <row r="7">
@@ -938,13 +1969,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05232558139534884</v>
+        <v>0.06086956521739131</v>
       </c>
     </row>
     <row r="8">
@@ -955,13 +1986,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02325581395348837</v>
+        <v>0.06086956521739131</v>
       </c>
     </row>
     <row r="9">
@@ -987,13 +2018,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="D10" t="n">
-        <v>134.25</v>
+        <v>149.25</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1014,6 +2045,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1063,13 +2101,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3875968992248062</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="4">
@@ -1080,13 +2118,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="D4" t="n">
-        <v>53.25</v>
+        <v>75.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2751937984496124</v>
+        <v>0.4353448275862069</v>
       </c>
     </row>
     <row r="5">
@@ -1097,13 +2135,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D5" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1201550387596899</v>
+        <v>0.1896551724137931</v>
       </c>
     </row>
     <row r="6">
@@ -1114,13 +2152,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05426356589147287</v>
+        <v>0.08620689655172414</v>
       </c>
     </row>
     <row r="7">
@@ -1131,13 +2169,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.124031007751938</v>
+        <v>0.1120689655172414</v>
       </c>
     </row>
     <row r="8">
@@ -1148,13 +2186,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03875968992248062</v>
+        <v>0.05172413793103448</v>
       </c>
     </row>
     <row r="9">
@@ -1180,10 +2218,1010 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="D10" t="n">
-        <v>172.25</v>
+        <v>131.75</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>37</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1594827586206897</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>145</v>
+      </c>
+      <c r="D4" t="n">
+        <v>108.75</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.08620689655172414</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.04310344827586207</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.03448275862068965</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.05172413793103448</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>232</v>
+      </c>
+      <c r="D10" t="n">
+        <v>158.25</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>96</v>
+      </c>
+      <c r="D3" t="n">
+        <v>96</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5581395348837209</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2034883720930233</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1162790697674419</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.04651162790697674</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.05232558139534884</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.02325581395348837</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>172</v>
+      </c>
+      <c r="D10" t="n">
+        <v>134.25</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>43</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.25</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2559523809523809</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>52</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3095238095238095</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1011904761904762</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1071428571428571</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.03571428571428571</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>168</v>
+      </c>
+      <c r="D10" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>152</v>
+      </c>
+      <c r="D3" t="n">
+        <v>152</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.608</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>43</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.25</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.172</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.064</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>250</v>
+      </c>
+      <c r="D10" t="n">
+        <v>194.75</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.06018518518518518</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D3" t="n">
+        <v>60</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2777777777777778</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>68</v>
+      </c>
+      <c r="D4" t="n">
+        <v>51</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3148148148148148</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1527777777777778</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.01851851851851852</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.09259259259259259</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>216</v>
+      </c>
+      <c r="D10" t="n">
+        <v>141.5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
